--- a/sids data/PCRAFI_Agg_EP_Curves.xlsx
+++ b/sids data/PCRAFI_Agg_EP_Curves.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12440" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7110"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="16" r:id="rId1"/>
@@ -1444,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:T93"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19511,7 +19511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31:H39"/>
     </sheetView>
   </sheetViews>
